--- a/MakeExcelTool/7-15至7-21运营考勤排班导入.xlsx
+++ b/MakeExcelTool/7-15至7-21运营考勤排班导入.xlsx
@@ -443,19 +443,11 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>工作</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+          <t>休息</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr"/>
+      <c r="F2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -480,12 +472,12 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>21:00</t>
         </is>
       </c>
     </row>
@@ -507,11 +499,19 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -531,19 +531,11 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>工作</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
+          <t>休息</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -563,11 +555,19 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -651,11 +651,19 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr"/>
-      <c r="F9" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -675,19 +683,11 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>工作</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
+          <t>休息</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr"/>
+      <c r="F10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -707,11 +707,19 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr"/>
-      <c r="F11" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -736,12 +744,12 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -763,19 +771,11 @@
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>工作</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+          <t>休息</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr"/>
+      <c r="F13" s="3" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -795,19 +795,11 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>工作</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+          <t>休息</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -827,11 +819,19 @@
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr"/>
-      <c r="F15" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -851,11 +851,19 @@
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr"/>
-      <c r="F16" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -880,12 +888,12 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
     </row>
@@ -907,19 +915,11 @@
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>工作</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+          <t>休息</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -939,11 +939,19 @@
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -973,7 +981,7 @@
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
     </row>
@@ -995,11 +1003,19 @@
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1019,19 +1035,11 @@
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>工作</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
+          <t>休息</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1051,11 +1059,19 @@
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr"/>
-      <c r="F23" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1075,11 +1091,19 @@
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1200,12 +1224,12 @@
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>14:30</t>
         </is>
       </c>
     </row>
@@ -1275,11 +1299,19 @@
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="inlineStr"/>
-      <c r="F32" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1323,11 +1355,19 @@
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1352,12 +1392,12 @@
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>14:30</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1448,7 @@
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
@@ -1435,11 +1475,19 @@
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="inlineStr"/>
-      <c r="F38" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1459,11 +1507,19 @@
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="inlineStr"/>
-      <c r="F39" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1507,11 +1563,19 @@
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E41" s="3" t="inlineStr"/>
-      <c r="F41" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1531,11 +1595,19 @@
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E42" s="3" t="inlineStr"/>
-      <c r="F42" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1555,11 +1627,19 @@
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E43" s="3" t="inlineStr"/>
-      <c r="F43" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1584,7 +1664,7 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
@@ -1616,7 +1696,7 @@
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
@@ -1648,7 +1728,7 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
@@ -1699,19 +1779,11 @@
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>工作</t>
-        </is>
-      </c>
-      <c r="E48" s="3" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="F48" s="3" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+          <t>休息</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr"/>
+      <c r="F48" s="3" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1736,7 +1808,7 @@
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
@@ -1768,7 +1840,7 @@
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
@@ -1795,11 +1867,19 @@
       </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="inlineStr"/>
-      <c r="F51" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1824,7 +1904,7 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
@@ -1856,7 +1936,7 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
@@ -1883,19 +1963,11 @@
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>工作</t>
-        </is>
-      </c>
-      <c r="E54" s="3" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="F54" s="3" t="inlineStr">
-        <is>
-          <t>22:30</t>
-        </is>
-      </c>
+          <t>休息</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr"/>
+      <c r="F54" s="3" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1915,11 +1987,19 @@
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="inlineStr"/>
-      <c r="F55" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1939,11 +2019,19 @@
       </c>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E56" s="3" t="inlineStr"/>
-      <c r="F56" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1968,7 +2056,7 @@
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
@@ -2000,7 +2088,7 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
@@ -2027,11 +2115,19 @@
       </c>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="inlineStr"/>
-      <c r="F59" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2083,11 +2179,19 @@
       </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E61" s="3" t="inlineStr"/>
-      <c r="F61" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2112,7 +2216,7 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
@@ -2144,7 +2248,7 @@
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
@@ -2171,11 +2275,19 @@
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
-        </is>
-      </c>
-      <c r="E64" s="3" t="inlineStr"/>
-      <c r="F64" s="3" t="inlineStr"/>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
